--- a/DateBase/orders/Dang Nguyen_2025-2-1.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-1.xlsx
@@ -521,6 +521,9 @@
       <c r="C11" t="str">
         <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -582,7 +585,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05555888860</v>
+        <v>05555888865</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-2-1.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-1.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,9 +525,78 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>324_小手球_Spiraea flower double petals_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F16" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F19" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L19"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -585,7 +654,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05555888865</v>
+        <v>055558888651055855651</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-2-1.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-1.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -586,17 +586,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="C19" t="str">
-        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F19" t="str">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L18"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -654,7 +646,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>055558888651055855651</v>
+        <v>05555888865105585565</v>
       </c>
     </row>
   </sheetData>
